--- a/src/indices.xlsx
+++ b/src/indices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiara/EUTOPS Team Dropbox/Chiara Herzog/eca/tirolgesund/7-manuscripts/if1/1-repository/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24108F2-9448-DD44-B19F-DED0CD859B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CE0CD-7480-364E-BD30-F9A75AC53845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14920" yWindow="500" windowWidth="20920" windowHeight="17440" activeTab="2" xr2:uid="{9B68C3DA-B724-D648-8729-B166D40B7E53}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>x</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>neutrophil prop.</t>
+  </si>
+  <si>
+    <t>DNAmGrimAgeV2</t>
+  </si>
+  <si>
+    <t>GrimAge (V2)</t>
   </si>
 </sst>
 </file>
@@ -850,10 +856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93734CE3-3306-7E4B-99CE-451EE0C59707}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,6 +1008,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
